--- a/src/excelize/Net.xlsx
+++ b/src/excelize/Net.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15260" tabRatio="556" activeTab="1"/>
+    <workbookView windowHeight="15260" tabRatio="556"/>
   </bookViews>
   <sheets>
     <sheet name="账单" sheetId="1" r:id="rId1"/>
@@ -27587,8 +27587,8 @@
   <sheetPr/>
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77884615384615" defaultRowHeight="14.25" customHeight="1"/>
@@ -28796,7 +28796,7 @@
   <sheetPr/>
   <dimension ref="A1:G8641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
